--- a/Nhập môn Công nghệ thông tin/deCNTT1116_C3.xlsx
+++ b/Nhập môn Công nghệ thông tin/deCNTT1116_C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phát triển đề SITDE PK\SITDE-PK-BANKS\Nhập môn Công nghệ thông tin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE7FB1-BA5D-4651-A5B5-FD8BD91E5A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7A2EC-8FB7-4261-A78A-D512B4C494FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1962,8 +1962,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D102" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,7 +3371,7 @@
         <v>269</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>490</v>
